--- a/data/EFileImportBP/SanMateoBuildingPermitsWithValidAndInvalidData5.xlsx
+++ b/data/EFileImportBP/SanMateoBuildingPermitsWithValidAndInvalidData5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="5985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="5655"/>
   </bookViews>
   <sheets>
     <sheet name="County Report" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>CITYCODE</t>
   </si>
@@ -577,11 +577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1006,154 @@
         <v>41</v>
       </c>
     </row>
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43133</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="5">
+        <v>94403</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>900000</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>12000</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>43658</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>43647</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43133</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="5">
+        <v>94403</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>900000</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>12000</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>43658</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>43647</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
